--- a/output/classification_2020.xlsx
+++ b/output/classification_2020.xlsx
@@ -14,25 +14,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
-    <t xml:space="preserve">repository.x</t>
+    <t xml:space="preserve">repository_re3data</t>
   </si>
   <si>
     <t xml:space="preserve">repository_type</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyword</t>
+    <t xml:space="preserve">repository_type_re3data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject_re3data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyword_re3data</t>
   </si>
   <si>
     <t xml:space="preserve">count</t>
   </si>
   <si>
-    <t xml:space="preserve">geo</t>
+    <t xml:space="preserve">Gene Expression Omnibus</t>
   </si>
   <si>
     <t xml:space="preserve">field-specific repository</t>
@@ -41,10 +41,10 @@
     <t xml:space="preserve">disciplinary</t>
   </si>
   <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20105 general genetics_and_21 biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid-19_and_gene expression_and_genetic regulation_and_genomics data</t>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20105 General Genetics_AND_21 Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19_AND_Gene Expression_AND_Genetic Regulation_AND_Genomics Data</t>
   </si>
   <si>
     <t xml:space="preserve">figshare</t>
@@ -56,289 +56,289 @@
     <t xml:space="preserve">other</t>
   </si>
   <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_2 life sciences_and_3 natural sciences_and_4 engineering sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data collection platform_and_multidisciplinary</t>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_2 Life Sciences_AND_3 Natural Sciences_AND_4 Engineering Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data collection platform_AND_multidisciplinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Science Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_112 Economics_AND_12 Social and Behavioural Sciences_AND_2 Life Sciences_AND_204 Microbiology, Virology and Immunology_AND_207 Agriculture, Forestry, Horticulture and Veterinary Medicine_AND_21 Biology_AND_22 Medicine_AND_23 Agriculture, Forestry, Horticulture and Veterinary Medicine_AND_3 Natural Sciences_AND_31 Chemistry_AND_32 Physics_AND_34 Geosciences (including Geography)_AND_4 Engineering Sciences_AND_44 Computer Science, Electrical and System Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archive_AND_multidisciplinary_AND_program management_AND_workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRoteomics IDEntifications Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_20107 Bioinformatics and Theoretical Biology_AND_21 Biology_AND_3 Natural Sciences_AND_304 Analytical Chemistry, Method Development (Chemistry)_AND_30401 Analytical Chemistry, Method Development (Chemistry)_AND_31 Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amino acids_AND_mass spectra_AND_mass spectrometry_AND_peptide identifications_AND_protein identifications_AND_proteomics_AND_sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Nucleotide Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20105 General Genetics_AND_20107 Bioinformatics and Theoretical Biology_AND_204 Microbiology, Virology and Immunology_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRAM_AND_DNA, RNA_AND_epigenomics_AND_genome_AND_human genetics_AND_metagenomics_AND_protein coding_AND_samples_AND_taxonomy data_AND_transcripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI Nucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_20105 General Genetics_AND_20107 Bioinformatics and Theoretical Biology_AND_202 Plant Sciences_AND_20206 Plant Cell and Developmental Biology_AND_20207 Plant Genetics_AND_203 Zoology_AND_20306 Animal Genetics, Cell and Developmental Biology_AND_21 Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biological assay_AND_gene expression_AND_genomics_AND_molecule types_AND_nucleic acids_AND_sequence types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence Read Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20105 General Genetics_AND_202 Plant Sciences_AND_20207 Plant Genetics_AND_203 Zoology_AND_20306 Animal Genetics, Cell and Developmental Biology_AND_21 Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemicals_AND_DNA_AND_Genes_AND_Proteins_AND_RNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Engineering Sciences_AND_409 Computer Science_AND_44 Computer Science, Electrical and System Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open source software_AND_social networking_AND_web-based hosting service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worldwide Protein Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disciplinary_AND_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20103 Cell Biology_AND_20104 Structural Biology_AND_20105 General Genetics_AND_205 Medicine_AND_21 Biology_AND_22 Medicine_AND_3 Natural Sciences_AND_301 Molecular Chemistry_AND_308 Optics, Quantum Optics and Physics of Atoms, Molecules and Plasmas_AND_31 Chemistry_AND_316 Geochemistry, Mineralogy and Crystallography_AND_32 Physics_AND_34 Geosciences (including Geography)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biology_AND_molecular biology_AND_proteins_AND_proteomics_AND_x-ray structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20105 General Genetics_AND_202 Plant Sciences_AND_20207 Plant Genetics_AND_203 Zoology_AND_20306 Animal Genetics, Cell and Developmental Biology_AND_204 Microbiology, Virology and Immunology_AND_20401 Metabolism, Biochemistry and Genetics of Microorganisms_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA &amp; RNA_AND_bioinformatics_AND_functional genomics data_AND_gene expression_AND_genomics_AND_ontologies_AND_proteins_AND_sequencing application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20103 Cell Biology_AND_20105 General Genetics_AND_21 Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWAS_AND_epigenomic analyses_AND_genome sequencing_AND_genome-wide association studies_AND_transcriptome sequencing</t>
   </si>
   <si>
     <t xml:space="preserve">dcc</t>
   </si>
   <si>
-    <t xml:space="preserve">osf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_112 economics_and_12 social and behavioural sciences_and_2 life sciences_and_204 microbiology, virology and immunology_and_207 agriculture, forestry, horticulture and veterinary medicine_and_21 biology_and_22 medicine_and_23 agriculture, forestry, horticulture and veterinary medicine_and_3 natural sciences_and_31 chemistry_and_32 physics_and_34 geosciences (including geography)_and_4 engineering sciences_and_44 computer science, electrical and system engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archive_and_multidisciplinary_and_program management_and_workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_20107 bioinformatics and theoretical biology_and_21 biology_and_3 natural sciences_and_304 analytical chemistry, method development (chemistry)_and_30401 analytical chemistry, method development (chemistry)_and_31 chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amino acids_and_mass spectra_and_mass spectrometry_and_peptide identifications_and_protein identifications_and_proteomics_and_sequencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20105 general genetics_and_202 plant sciences_and_20207 plant genetics_and_203 zoology_and_20306 animal genetics, cell and developmental biology_and_21 biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chemicals_and_dna_and_genes_and_proteins_and_rna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20105 general genetics_and_20107 bioinformatics and theoretical biology_and_204 microbiology, virology and immunology_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cram_and_dna, rna_and_epigenomics_and_genome_and_human genetics_and_metagenomics_and_protein coding_and_samples_and_taxonomy data_and_transcripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncbinucleotide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_20105 general genetics_and_20107 bioinformatics and theoretical biology_and_202 plant sciences_and_20206 plant cell and developmental biology_and_20207 plant genetics_and_203 zoology_and_20306 animal genetics, cell and developmental biology_and_21 biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biological assay_and_gene expression_and_genomics_and_molecule types_and_nucleic acids_and_sequence types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 engineering sciences_and_409 computer science_and_44 computer science, electrical and system engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open source software_and_social networking_and_web-based hosting service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwpdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disciplinary_and_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20103 cell biology_and_20104 structural biology_and_20105 general genetics_and_205 medicine_and_21 biology_and_22 medicine_and_3 natural sciences_and_301 molecular chemistry_and_308 optics, quantum optics and physics of atoms, molecules and plasmas_and_31 chemistry_and_316 geochemistry, mineralogy and crystallography_and_32 physics_and_34 geosciences (including geography)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biology_and_molecular biology_and_proteins_and_proteomics_and_x-ray structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrayexpress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20105 general genetics_and_202 plant sciences_and_20207 plant genetics_and_203 zoology_and_20306 animal genetics, cell and developmental biology_and_204 microbiology, virology and immunology_and_20401 metabolism, biochemistry and genetics of microorganisms_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dna &amp; rna_and_bioinformatics_and_functional genomics data_and_gene expression_and_genomics_and_ontologies_and_proteins_and_sequencing application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20103 cell biology_and_20105 general genetics_and_21 biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gwas_and_epigenomic analyses_and_genome sequencing_and_genome-wide association studies_and_transcriptome sequencing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mendeleydata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fair_and_data collection platform_and_multidisciplinary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fair_and_multidisciplinary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptideatlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_21 biology_and_22 medicine_and_3 natural sciences_and_301 molecular chemistry_and_31 chemistry_and_32 physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dna_and_biology_and_biotechnology_and_blood plasma_and_eukaryotic cells_and_genomes_and_molecular biology_and_peptides_and_proteins_and_proteomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteomexchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disciplinary_and_institutional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_20107 bioinformatics and theoretical biology_and_21 biology_and_3 natural sciences_and_304 analytical chemistry, method development (chemistry)_and_308 optics, quantum optics and physics of atoms, molecules and plasmas_and_31 chemistry_and_32 physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms proteomics data_and_mass spectrometry_and_protein / peptide identifications_and_protein identification_and_proteomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_20106 developmental biology_and_20107 bioinformatics and theoretical biology_and_204 microbiology, virology and immunology_and_206 neurosciences_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amp-ad knowledge portal_and_dream challenges_and_github_and_nf data portal_and_tcga pan-cancer working group_and_biomedicine_and_query structured data_and_record provenance_and_research communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_204 microbiology, virology and immunology_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid-19_and_biology_and_electron crystallography_and_electron tomography_and_electrons_and_enzymes_and_macromolecular complexes_and_proteins_and_ribosome_and_virus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">codeocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_2 life sciences_and_201 basic biological and medical research_and_20107 bioinformatics and theoretical biology_and_21 biology_and_3 natural sciences_and_313 atmospheric science and oceanography_and_31302 oceanography_and_33 mathematics_and_34 geosciences (including geography)_and_4 engineering sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">algorithm_and_bioinformatics_and_earth sciences_and_mathematics_and_multidisciplinary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">europeangenomephenomearchive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20104 structural biology_and_205 medicine_and_20503 human genetics_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioinformatics_and_biomedical research projects_and_clinical studies_and_genomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_206 neurosciences_and_20602 cellular neuroscience_and_20604 systemic neuroscience, computational neuroscience, behaviour_and_20606 cognitive neuroscience and neuroimaging_and_22 medicine</t>
+    <t xml:space="preserve">Mendeley Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIR_AND_data collection platform_AND_multidisciplinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIR_AND_multidisciplinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProteomeXchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disciplinary_AND_institutional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_20107 Bioinformatics and Theoretical Biology_AND_21 Biology_AND_3 Natural Sciences_AND_304 Analytical Chemistry, Method Development (Chemistry)_AND_308 Optics, Quantum Optics and Physics of Atoms, Molecules and Plasmas_AND_31 Chemistry_AND_32 Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS proteomics data_AND_mass spectrometry_AND_protein / peptide identifications_AND_protein identification_AND_proteomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Electron Microscopy Data Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_204 Microbiology, Virology and Immunology_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19_AND_biology_AND_electron crystallography_AND_electron tomography_AND_electrons_AND_enzymes_AND_macromolecular complexes_AND_proteins_AND_ribosome_AND_virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20107 Bioinformatics and Theoretical Biology_AND_21 Biology_AND_3 Natural Sciences_AND_313 Atmospheric Science and Oceanography_AND_31302 Oceanography_AND_33 Mathematics_AND_34 Geosciences (including Geography)_AND_4 Engineering Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algorithm_AND_bioinformatics_AND_earth sciences_AND_mathematics_AND_multidisciplinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_206 Neurosciences_AND_20602 Cellular Neuroscience_AND_20604 Systemic Neuroscience, Computational Neuroscience, Behaviour_AND_20606 Cognitive Neuroscience and Neuroimaging_AND_22 Medicine</t>
   </si>
   <si>
     <t xml:space="preserve">neuroscience</t>
   </si>
   <si>
-    <t xml:space="preserve">dryad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_12 social and behavioural sciences_and_2 life sciences_and_201 basic biological and medical research_and_20105 general genetics_and_20107 bioinformatics and theoretical biology_and_202 plant sciences_and_20202 plant ecology and ecosystem analysis_and_203 zoology_and_20302 evolution, anthropology_and_20305 biochemistry and animal physiology_and_204 microbiology, virology and immunology_and_20402 microbial ecology and applied microbiology_and_20404 virology_and_207 agriculture, forestry, horticulture and veterinary medicine_and_21 biology_and_22 medicine_and_23 agriculture, forestry, horticulture and veterinary medicine_and_3 natural sciences_and_314 geology and palaeontology_and_34 geosciences (including geography)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fair_and_biodiversity_and_interdisciplinary_and_scientific and medical publications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openneuro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_110 psychology_and_12 social and behavioural sciences_and_2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_206 neurosciences_and_20606 cognitive neuroscience and neuroimaging_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behavioral scientists_and_biology_and_brain_and_brain chemistry_and_cells_and_magnetic resonance imaging_and_molecular biology_and_stimulants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addgene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_205 medicine_and_20503 human genetics_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dna_and_shrna expression_and_xdna expression_and_biology_and_cloning data_and_empty backbones_and_gene bank_and_genome modification_and_medicine_and_viral vectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinicaltrialsgov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_204 microbiology, virology and immunology_and_205 medicine_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid-19_and_behavioral_and_clinical research_and_clinical studies_and_clinical trial_and_drug_and_observation_and_therapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cptacdataportal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20103 cell biology_and_20105 general genetics_and_20107 bioinformatics and theoretical biology_and_205 medicine_and_20502 public health, health services research, social medicine_and_20503 human genetics_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancer biospecimens_and_mass spectrometry_and_proteins_and_proteome</t>
+    <t xml:space="preserve">PeptideAtlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_21 Biology_AND_22 Medicine_AND_3 Natural Sciences_AND_301 Molecular Chemistry_AND_31 Chemistry_AND_32 Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA_AND_biology_AND_biotechnology_AND_blood plasma_AND_eukaryotic cells_AND_genomes_AND_molecular biology_AND_peptides_AND_proteins_AND_proteomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_20106 Developmental Biology_AND_20107 Bioinformatics and Theoretical Biology_AND_204 Microbiology, Virology and Immunology_AND_206 Neurosciences_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP-AD Knowledge Portal_AND_DREAM Challenges_AND_GitHub_AND_NF Data Portal_AND_TCGA Pan-Cancer Working Group_AND_biomedicine_AND_query structured data_AND_record provenance_AND_research communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Genome-phenome Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20104 Structural Biology_AND_205 Medicine_AND_20503 Human Genetics_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioinformatics_AND_biomedical research projects_AND_clinical studies_AND_genomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_12 Social and Behavioural Sciences_AND_2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20105 General Genetics_AND_20107 Bioinformatics and Theoretical Biology_AND_202 Plant Sciences_AND_20202 Plant Ecology and Ecosystem Analysis_AND_203 Zoology_AND_20302 Evolution, Anthropology_AND_20305 Biochemistry and Animal Physiology_AND_204 Microbiology, Virology and Immunology_AND_20402 Microbial Ecology and Applied Microbiology_AND_20404 Virology_AND_207 Agriculture, Forestry, Horticulture and Veterinary Medicine_AND_21 Biology_AND_22 Medicine_AND_23 Agriculture, Forestry, Horticulture and Veterinary Medicine_AND_3 Natural Sciences_AND_314 Geology and Palaeontology_AND_34 Geosciences (including Geography)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIR_AND_biodiversity_AND_interdisciplinary_AND_scientific and medical publications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenNeuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_110 Psychology_AND_12 Social and Behavioural Sciences_AND_2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_206 Neurosciences_AND_20606 Cognitive Neuroscience and Neuroimaging_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavioral scientists_AND_biology_AND_brain_AND_brain chemistry_AND_cells_AND_magnetic resonance imaging_AND_molecular biology_AND_stimulants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_205 Medicine_AND_20503 Human Genetics_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA_AND_SHRNA expression_AND_XDNA expression_AND_biology_AND_cloning data_AND_empty backbones_AND_gene bank_AND_genome modification_AND_medicine_AND_viral vectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical Proteomic Tumor Analysis Consortium Data Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20103 Cell Biology_AND_20105 General Genetics_AND_20107 Bioinformatics and Theoretical Biology_AND_205 Medicine_AND_20502 Public Health, Health Services Research, Social Medicine_AND_20503 Human Genetics_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancer biospecimens_AND_mass spectrometry_AND_proteins_AND_proteome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClinicalTrials.gov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_204 Microbiology, Virology and Immunology_AND_205 Medicine_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19_AND_behavioral_AND_clinical research_AND_clinical studies_AND_clinical trial_AND_drug_AND_observation_AND_therapy</t>
   </si>
   <si>
     <t xml:space="preserve">decipher</t>
   </si>
   <si>
-    <t xml:space="preserve">flowrepository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20103 cell biology_and_21 biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fcm_and_omip_and_bioinformatics_and_cytometry_and_life sciences_and_statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghdx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_111 social sciences_and_12 social and behavioural sciences_and_2 life sciences_and_205 medicine_and_20501 epidemiology, medical biometry, medical informatics_and_20502 public health, health services research, social medicine_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">census_and_climate_and_demography_and_environment_and_global health_and_health survey_and_population health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gigadb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_202 plant sciences_and_20207 plant genetics_and_203 zoology_and_20306 animal genetics, cell and developmental biology_and_204 microbiology, virology and immunology_and_20401 metabolism, biochemistry and genetics of microorganisms_and_205 medicine_and_20503 human genetics_and_206 neurosciences_and_21 biology_and_22 medicine_and_4 engineering sciences_and_409 computer science_and_40902 software technology_and_44 computer science, electrical and system engineering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ct data_and_fair_and_mri image data_and_biocuration_and_biodiversity_and_biology_and_biomedical sciences_and_biomedicine_and_data publishing_and_genomics_and_human genetics_and_microscopy data_and_optical imaging_and_transcriptome sequence</t>
+    <t xml:space="preserve">FlowRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20103 Cell Biology_AND_21 Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCM_AND_OMIP_AND_bioinformatics_AND_cytometry_AND_life sciences_AND_statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GigaDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_202 Plant Sciences_AND_20207 Plant Genetics_AND_203 Zoology_AND_20306 Animal Genetics, Cell and Developmental Biology_AND_204 Microbiology, Virology and Immunology_AND_20401 Metabolism, Biochemistry and Genetics of Microorganisms_AND_205 Medicine_AND_20503 Human Genetics_AND_206 Neurosciences_AND_21 Biology_AND_22 Medicine_AND_4 Engineering Sciences_AND_409 Computer Science_AND_40902 Software Technology_AND_44 Computer Science, Electrical and System Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT data_AND_FAIR_AND_MRI image data_AND_biocuration_AND_biodiversity_AND_biology_AND_biomedical sciences_AND_biomedicine_AND_data publishing_AND_genomics_AND_human genetics_AND_microscopy data_AND_optical imaging_AND_transcriptome sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Health Data Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_111 Social Sciences_AND_12 Social and Behavioural Sciences_AND_2 Life Sciences_AND_205 Medicine_AND_20501 Epidemiology, Medical Biometry, Medical Informatics_AND_20502 Public Health, Health Services Research, Social Medicine_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census_AND_climate_AND_demography_AND_environment_AND_global health_AND_health survey_AND_population health</t>
   </si>
   <si>
     <t xml:space="preserve">gpcrmd</t>
   </si>
   <si>
-    <t xml:space="preserve">harvarddataverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 humanities and social sciences_and_111 social sciences_and_112 economics_and_12 social and behavioural sciences_and_2 life sciences_and_201 basic biological and medical research_and_21 biology_and_3 natural sciences_and_311 astrophysics and astronomy_and_32 physics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fair_and_automes research_and_demography_and_epidemiology_and_human  societies_and_human behavior_and_multidisciplinary_and_social societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20101 biochemistry_and_21 biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covid-19_and_coronamasskb_and_biochemical methods_and_bioinformatics_and_peptide_and_protein_and_proteomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_201 basic biological and medical research_and_20107 bioinformatics and theoretical biology_and_204 microbiology, virology and immunology_and_20401 metabolism, biochemistry and genetics of microorganisms_and_205 medicine_and_20515 gastroenterology, metabolism_and_21 biology_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cosmos_and_metabolic_and_metabolic pathway_and_metabolism_and_metabolite_and_metabolite database_and_metabolites_and_metabolomics_and_metabolomics experiment_and_metabolomics study_and_metabonomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">physionet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 life sciences_and_205 medicine_and_20502 public health, health services research, social medicine_and_206 neurosciences_and_22 medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mimic-iii_and_national sleep research resource_and_pwave_and_aging_and_biomedical signals_and_cardiology_and_eicu_and_electrophysiology_and_heart_and_nervous system_and_nonlinear dynamics_and_physiological signals_and_physiology_and_sudden death</t>
+    <t xml:space="preserve">Harvard Dataverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Humanities and Social Sciences_AND_111 Social Sciences_AND_112 Economics_AND_12 Social and Behavioural Sciences_AND_2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_21 Biology_AND_3 Natural Sciences_AND_311 Astrophysics and Astronomy_AND_32 Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIR_AND_automes research_AND_demography_AND_epidemiology_AND_human  societies_AND_human behavior_AND_multidisciplinary_AND_social societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Spectrometry Interactive Virtual Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20101 Biochemistry_AND_21 Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19_AND_CoronaMassKB_AND_biochemical methods_AND_bioinformatics_AND_peptide_AND_protein_AND_proteomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaboLights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_201 Basic Biological and Medical Research_AND_20107 Bioinformatics and Theoretical Biology_AND_204 Microbiology, Virology and Immunology_AND_20401 Metabolism, Biochemistry and Genetics of Microorganisms_AND_205 Medicine_AND_20515 Gastroenterology, Metabolism_AND_21 Biology_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosmos_AND_metabolic_AND_metabolic pathway_AND_metabolism_AND_metabolite_AND_metabolite database_AND_metabolites_AND_metabolomics_AND_metabolomics experiment_AND_metabolomics study_AND_metabonomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysioNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Life Sciences_AND_205 Medicine_AND_20502 Public Health, Health Services Research, Social Medicine_AND_206 Neurosciences_AND_22 Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIMIC-III_AND_National Sleep Research Resource_AND_PWAVE_AND_aging_AND_biomedical signals_AND_cardiology_AND_eICU_AND_electrophysiology_AND_heart_AND_nervous system_AND_nonlinear dynamics_AND_physiological signals_AND_physiology_AND_sudden death</t>
   </si>
   <si>
     <t xml:space="preserve">proteindiffraction</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">raeslab</t>
   </si>
   <si>
-    <t xml:space="preserve">tudatalib</t>
+    <t xml:space="preserve">TUdatalib</t>
   </si>
   <si>
     <t xml:space="preserve">institutional</t>
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -750,16 +750,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
@@ -767,27 +767,27 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -796,18 +796,18 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -816,18 +816,18 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -836,50 +836,50 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -887,27 +887,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -916,30 +916,30 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
@@ -993,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -1022,7 +1022,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -1042,7 +1042,7 @@
         <v>58</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1062,7 +1062,7 @@
         <v>61</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -1273,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
@@ -1293,7 +1293,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
         <v>94</v>
@@ -1333,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
         <v>98</v>
